--- a/template_automation/ARPA_DREAMS_templates/quarterly_template_cdi.xlsx
+++ b/template_automation/ARPA_DREAMS_templates/quarterly_template_cdi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davidsong\Desktop\USAID\1_DREAMS_ARPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmontespenaloza\Documents\GitHub\EA-Utilities\template_automation\ARPA_DREAMS_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7257B-E42F-49ED-98A8-266BAD9BB390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753AED7F-AC8F-4236-9390-374C08914D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6247" yWindow="2913" windowWidth="17900" windowHeight="10880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes and Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>Indicates the USD dollar amount of the expenditures as collected in DATIM from Partner submissions.</t>
   </si>
   <si>
-    <t>FY22 Workplan Budget</t>
+    <t>FY22 COP Budget</t>
   </si>
 </sst>
 </file>
@@ -285,24 +285,24 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,39 +606,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="22.703125" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" customWidth="1"/>
+    <col min="1" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+    <row r="2" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -662,7 +662,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -674,7 +674,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -684,298 +684,297 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="14" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:E11"/>
@@ -989,11 +988,12 @@
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1004,22 +1004,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1C59DE-4E87-444E-8260-97089365B76D}">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.29296875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.87890625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.41015625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.87890625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.41015625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1036,25 +1036,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="76" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="77" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="78" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="79" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="80" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="81" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="82" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="83" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="84" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="85" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="86" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="87" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="88" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="89" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="90" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="91" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="92" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="93" ht="12.95" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="75" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
